--- a/Super Powered/Data/Success Analysis.xlsx
+++ b/Super Powered/Data/Success Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FLL\repo\Super Powered\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53D812A0-CE17-460E-9B13-300A25FC0C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B27277-2F0B-449B-93C8-CBC008A68EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3C495B11-8F86-4B74-B5DE-F7306E2E0B1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{3C495B11-8F86-4B74-B5DE-F7306E2E0B1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,10 +127,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -155,7 +155,7 @@
     <tableColumn id="4" xr3:uid="{C111A601-565D-42FB-8F60-94ED7BACA11F}" name="NSO Met"/>
     <tableColumn id="3" xr3:uid="{65C19C33-0218-49C0-AF51-E7E028E02B05}" name="Max"/>
     <tableColumn id="5" xr3:uid="{503EFD7A-381C-4160-A386-3FD8E896EDFD}" name="NSO Goal"/>
-    <tableColumn id="7" xr3:uid="{DBB3BF7F-BF59-4269-BBD9-CA081A15D5EC}" name="Success Rate" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{DBB3BF7F-BF59-4269-BBD9-CA081A15D5EC}" name="Success Rate" dataDxfId="1">
       <calculatedColumnFormula>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -169,7 +169,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1A000347-FE73-4972-BF47-5EBD8ADF2E0F}" name="Trial"/>
     <tableColumn id="5" xr3:uid="{0BC1A6CE-E3FF-4E4C-B82D-71094F3CDAA0}" name="Run"/>
-    <tableColumn id="2" xr3:uid="{CAC31096-4EEB-4A9C-A4E4-2D7F4BB2A953}" name="Duration" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CAC31096-4EEB-4A9C-A4E4-2D7F4BB2A953}" name="Duration" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{05FFF0AC-C518-4035-AB93-02FD45ECD482}" name="Success"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A46FB3-1908-4E31-8006-A098B5EDCE82}">
   <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1538,6 +1538,12 @@
       <c r="B44" t="s">
         <v>4</v>
       </c>
+      <c r="C44">
+        <v>80</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
       <c r="E44">
         <v>100</v>
       </c>
@@ -1546,7 +1552,7 @@
       </c>
       <c r="G44" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1557,6 +1563,12 @@
       <c r="B45" t="s">
         <v>4</v>
       </c>
+      <c r="C45">
+        <v>80</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
       <c r="E45">
         <v>100</v>
       </c>
@@ -1565,7 +1577,7 @@
       </c>
       <c r="G45" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1576,6 +1588,12 @@
       <c r="B46" t="s">
         <v>4</v>
       </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
       <c r="E46">
         <v>100</v>
       </c>
@@ -1584,7 +1602,7 @@
       </c>
       <c r="G46" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1595,6 +1613,12 @@
       <c r="B47" t="s">
         <v>4</v>
       </c>
+      <c r="C47">
+        <v>80</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
       <c r="E47">
         <v>100</v>
       </c>
@@ -1603,7 +1627,7 @@
       </c>
       <c r="G47" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1614,6 +1638,12 @@
       <c r="B48" t="s">
         <v>4</v>
       </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
       <c r="E48">
         <v>100</v>
       </c>
@@ -1622,7 +1652,7 @@
       </c>
       <c r="G48" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1633,6 +1663,12 @@
       <c r="B49" t="s">
         <v>4</v>
       </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
       <c r="E49">
         <v>100</v>
       </c>
@@ -1641,7 +1677,7 @@
       </c>
       <c r="G49" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -1652,6 +1688,12 @@
       <c r="B50" t="s">
         <v>4</v>
       </c>
+      <c r="C50">
+        <v>80</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
       <c r="E50">
         <v>100</v>
       </c>
@@ -1660,7 +1702,7 @@
       </c>
       <c r="G50" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1671,6 +1713,12 @@
       <c r="B51" t="s">
         <v>4</v>
       </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
       <c r="E51">
         <v>100</v>
       </c>
@@ -1679,7 +1727,7 @@
       </c>
       <c r="G51" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -1690,6 +1738,12 @@
       <c r="B52" t="s">
         <v>4</v>
       </c>
+      <c r="C52">
+        <v>40</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
       <c r="E52">
         <v>100</v>
       </c>
@@ -1698,7 +1752,7 @@
       </c>
       <c r="G52" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -1709,6 +1763,12 @@
       <c r="B53" t="s">
         <v>4</v>
       </c>
+      <c r="C53">
+        <v>85</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
       <c r="E53">
         <v>100</v>
       </c>
@@ -1717,7 +1777,7 @@
       </c>
       <c r="G53" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -1728,6 +1788,12 @@
       <c r="B54" t="s">
         <v>4</v>
       </c>
+      <c r="C54">
+        <v>75</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
       <c r="E54">
         <v>100</v>
       </c>
@@ -1736,7 +1802,7 @@
       </c>
       <c r="G54" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1747,6 +1813,12 @@
       <c r="B55" t="s">
         <v>4</v>
       </c>
+      <c r="C55">
+        <v>100</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
       <c r="E55">
         <v>100</v>
       </c>
@@ -1755,7 +1827,7 @@
       </c>
       <c r="G55" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -1766,6 +1838,12 @@
       <c r="B56" t="s">
         <v>4</v>
       </c>
+      <c r="C56">
+        <v>80</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
       <c r="E56">
         <v>100</v>
       </c>
@@ -1774,7 +1852,7 @@
       </c>
       <c r="G56" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -1785,6 +1863,12 @@
       <c r="B57" t="s">
         <v>4</v>
       </c>
+      <c r="C57">
+        <v>60</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
       <c r="E57">
         <v>100</v>
       </c>
@@ -1793,7 +1877,7 @@
       </c>
       <c r="G57" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -1804,6 +1888,12 @@
       <c r="B58" t="s">
         <v>4</v>
       </c>
+      <c r="C58">
+        <v>65</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
       <c r="E58">
         <v>100</v>
       </c>
@@ -1812,7 +1902,7 @@
       </c>
       <c r="G58" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -1823,6 +1913,12 @@
       <c r="B59" t="s">
         <v>4</v>
       </c>
+      <c r="C59">
+        <v>75</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
       <c r="E59">
         <v>100</v>
       </c>
@@ -1831,7 +1927,7 @@
       </c>
       <c r="G59" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -1842,6 +1938,12 @@
       <c r="B60" t="s">
         <v>4</v>
       </c>
+      <c r="C60">
+        <v>100</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
       <c r="E60">
         <v>100</v>
       </c>
@@ -1850,7 +1952,7 @@
       </c>
       <c r="G60" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -1861,6 +1963,12 @@
       <c r="B61" t="s">
         <v>9</v>
       </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
       <c r="E61">
         <v>20</v>
       </c>
@@ -1869,7 +1977,7 @@
       </c>
       <c r="G61" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -1880,6 +1988,12 @@
       <c r="B62" t="s">
         <v>9</v>
       </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
       <c r="E62">
         <v>20</v>
       </c>
@@ -1888,7 +2002,7 @@
       </c>
       <c r="G62" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -1899,6 +2013,12 @@
       <c r="B63" t="s">
         <v>9</v>
       </c>
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
       <c r="E63">
         <v>20</v>
       </c>
@@ -1907,7 +2027,7 @@
       </c>
       <c r="G63" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -1918,6 +2038,12 @@
       <c r="B64" t="s">
         <v>9</v>
       </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
       <c r="E64">
         <v>20</v>
       </c>
@@ -1926,7 +2052,7 @@
       </c>
       <c r="G64" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -1937,6 +2063,12 @@
       <c r="B65" t="s">
         <v>9</v>
       </c>
+      <c r="C65">
+        <v>20</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
       <c r="E65">
         <v>20</v>
       </c>
@@ -1945,7 +2077,7 @@
       </c>
       <c r="G65" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -1956,6 +2088,12 @@
       <c r="B66" t="s">
         <v>9</v>
       </c>
+      <c r="C66">
+        <v>15</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
       <c r="E66">
         <v>20</v>
       </c>
@@ -1964,7 +2102,7 @@
       </c>
       <c r="G66" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -1975,6 +2113,12 @@
       <c r="B67" t="s">
         <v>9</v>
       </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
       <c r="E67">
         <v>20</v>
       </c>
@@ -1983,7 +2127,7 @@
       </c>
       <c r="G67" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -1994,6 +2138,12 @@
       <c r="B68" t="s">
         <v>9</v>
       </c>
+      <c r="C68">
+        <v>20</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
       <c r="E68">
         <v>20</v>
       </c>
@@ -2002,7 +2152,7 @@
       </c>
       <c r="G68" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -2013,6 +2163,12 @@
       <c r="B69" t="s">
         <v>9</v>
       </c>
+      <c r="C69">
+        <v>20</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
       <c r="E69">
         <v>20</v>
       </c>
@@ -2021,7 +2177,7 @@
       </c>
       <c r="G69" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -2032,6 +2188,12 @@
       <c r="B70" t="s">
         <v>9</v>
       </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
       <c r="E70">
         <v>20</v>
       </c>
@@ -2040,7 +2202,7 @@
       </c>
       <c r="G70" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -2051,6 +2213,12 @@
       <c r="B71" t="s">
         <v>9</v>
       </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
       <c r="E71">
         <v>20</v>
       </c>
@@ -2059,7 +2227,7 @@
       </c>
       <c r="G71" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -2070,6 +2238,12 @@
       <c r="B72" t="s">
         <v>9</v>
       </c>
+      <c r="C72">
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
       <c r="E72">
         <v>20</v>
       </c>
@@ -2078,7 +2252,7 @@
       </c>
       <c r="G72" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2089,6 +2263,12 @@
       <c r="B73" t="s">
         <v>9</v>
       </c>
+      <c r="C73">
+        <v>20</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
       <c r="E73">
         <v>20</v>
       </c>
@@ -2097,7 +2277,7 @@
       </c>
       <c r="G73" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2108,6 +2288,12 @@
       <c r="B74" t="s">
         <v>9</v>
       </c>
+      <c r="C74">
+        <v>20</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
       <c r="E74">
         <v>20</v>
       </c>
@@ -2116,7 +2302,7 @@
       </c>
       <c r="G74" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2127,6 +2313,12 @@
       <c r="B75" t="s">
         <v>9</v>
       </c>
+      <c r="C75">
+        <v>20</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
       <c r="E75">
         <v>20</v>
       </c>
@@ -2135,7 +2327,7 @@
       </c>
       <c r="G75" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2146,6 +2338,12 @@
       <c r="B76" t="s">
         <v>9</v>
       </c>
+      <c r="C76">
+        <v>20</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
       <c r="E76">
         <v>20</v>
       </c>
@@ -2154,7 +2352,7 @@
       </c>
       <c r="G76" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -2165,6 +2363,12 @@
       <c r="B77" t="s">
         <v>9</v>
       </c>
+      <c r="C77">
+        <v>20</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
       <c r="E77">
         <v>20</v>
       </c>
@@ -2173,7 +2377,7 @@
       </c>
       <c r="G77" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -2184,6 +2388,12 @@
       <c r="B78" t="s">
         <v>9</v>
       </c>
+      <c r="C78">
+        <v>20</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
       <c r="E78">
         <v>20</v>
       </c>
@@ -2192,7 +2402,7 @@
       </c>
       <c r="G78" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -2203,6 +2413,12 @@
       <c r="B79" t="s">
         <v>9</v>
       </c>
+      <c r="C79">
+        <v>20</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
       <c r="E79">
         <v>20</v>
       </c>
@@ -2211,7 +2427,7 @@
       </c>
       <c r="G79" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -2222,6 +2438,12 @@
       <c r="B80" t="s">
         <v>9</v>
       </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
       <c r="E80">
         <v>20</v>
       </c>
@@ -2230,7 +2452,7 @@
       </c>
       <c r="G80" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -2241,6 +2463,12 @@
       <c r="B81" t="s">
         <v>9</v>
       </c>
+      <c r="C81">
+        <v>15</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
       <c r="E81">
         <v>20</v>
       </c>
@@ -2249,7 +2477,7 @@
       </c>
       <c r="G81" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -2260,6 +2488,12 @@
       <c r="B82" t="s">
         <v>9</v>
       </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
       <c r="E82">
         <v>20</v>
       </c>
@@ -2268,7 +2502,7 @@
       </c>
       <c r="G82" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -2279,6 +2513,12 @@
       <c r="B83" t="s">
         <v>9</v>
       </c>
+      <c r="C83">
+        <v>20</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
       <c r="E83">
         <v>20</v>
       </c>
@@ -2287,7 +2527,7 @@
       </c>
       <c r="G83" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -2298,6 +2538,12 @@
       <c r="B84" t="s">
         <v>9</v>
       </c>
+      <c r="C84">
+        <v>20</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
       <c r="E84">
         <v>20</v>
       </c>
@@ -2306,7 +2552,7 @@
       </c>
       <c r="G84" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -2317,6 +2563,12 @@
       <c r="B85" t="s">
         <v>9</v>
       </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
       <c r="E85">
         <v>20</v>
       </c>
@@ -2325,7 +2577,7 @@
       </c>
       <c r="G85" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -2336,6 +2588,12 @@
       <c r="B86" t="s">
         <v>9</v>
       </c>
+      <c r="C86">
+        <v>20</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
       <c r="E86">
         <v>20</v>
       </c>
@@ -2344,7 +2602,7 @@
       </c>
       <c r="G86" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -2355,6 +2613,12 @@
       <c r="B87" t="s">
         <v>9</v>
       </c>
+      <c r="C87">
+        <v>20</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
       <c r="E87">
         <v>20</v>
       </c>
@@ -2363,7 +2627,7 @@
       </c>
       <c r="G87" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -2374,6 +2638,12 @@
       <c r="B88" t="s">
         <v>9</v>
       </c>
+      <c r="C88">
+        <v>20</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
       <c r="E88">
         <v>20</v>
       </c>
@@ -2382,7 +2652,7 @@
       </c>
       <c r="G88" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -2393,6 +2663,12 @@
       <c r="B89" t="s">
         <v>9</v>
       </c>
+      <c r="C89">
+        <v>15</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
       <c r="E89">
         <v>20</v>
       </c>
@@ -2401,7 +2677,7 @@
       </c>
       <c r="G89" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -2412,6 +2688,12 @@
       <c r="B90" t="s">
         <v>9</v>
       </c>
+      <c r="C90">
+        <v>20</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
       <c r="E90">
         <v>20</v>
       </c>
@@ -2420,7 +2702,7 @@
       </c>
       <c r="G90" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -2431,6 +2713,12 @@
       <c r="B91" t="s">
         <v>10</v>
       </c>
+      <c r="C91">
+        <v>70</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
       <c r="E91">
         <v>85</v>
       </c>
@@ -2439,7 +2727,7 @@
       </c>
       <c r="G91" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.82352941176470584</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -2450,6 +2738,12 @@
       <c r="B92" t="s">
         <v>10</v>
       </c>
+      <c r="C92">
+        <v>65</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
       <c r="E92">
         <v>85</v>
       </c>
@@ -2458,7 +2752,7 @@
       </c>
       <c r="G92" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.76470588235294112</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -2469,6 +2763,12 @@
       <c r="B93" t="s">
         <v>10</v>
       </c>
+      <c r="C93">
+        <v>55</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
       <c r="E93">
         <v>85</v>
       </c>
@@ -2477,7 +2777,7 @@
       </c>
       <c r="G93" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -2488,6 +2788,12 @@
       <c r="B94" t="s">
         <v>10</v>
       </c>
+      <c r="C94">
+        <v>40</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
       <c r="E94">
         <v>85</v>
       </c>
@@ -2496,7 +2802,7 @@
       </c>
       <c r="G94" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.47058823529411764</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -2507,6 +2813,12 @@
       <c r="B95" t="s">
         <v>10</v>
       </c>
+      <c r="C95">
+        <v>55</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
       <c r="E95">
         <v>85</v>
       </c>
@@ -2515,7 +2827,7 @@
       </c>
       <c r="G95" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -2526,6 +2838,12 @@
       <c r="B96" t="s">
         <v>10</v>
       </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
       <c r="E96">
         <v>85</v>
       </c>
@@ -2534,7 +2852,7 @@
       </c>
       <c r="G96" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.23529411764705882</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -2545,6 +2863,12 @@
       <c r="B97" t="s">
         <v>10</v>
       </c>
+      <c r="C97">
+        <v>55</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
       <c r="E97">
         <v>85</v>
       </c>
@@ -2553,7 +2877,7 @@
       </c>
       <c r="G97" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -2564,6 +2888,12 @@
       <c r="B98" t="s">
         <v>10</v>
       </c>
+      <c r="C98">
+        <v>65</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
       <c r="E98">
         <v>85</v>
       </c>
@@ -2572,7 +2902,7 @@
       </c>
       <c r="G98" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.76470588235294112</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -2583,6 +2913,12 @@
       <c r="B99" t="s">
         <v>10</v>
       </c>
+      <c r="C99">
+        <v>75</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
       <c r="E99">
         <v>85</v>
       </c>
@@ -2591,7 +2927,7 @@
       </c>
       <c r="G99" s="2">
         <f>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</f>
-        <v>0</v>
+        <v>0.88235294117647056</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">

--- a/Super Powered/Data/Success Analysis.xlsx
+++ b/Super Powered/Data/Success Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FLL\repo\Super Powered\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B27277-2F0B-449B-93C8-CBC008A68EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F4A3D4-EDFC-4D32-8338-2E61979C3E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{3C495B11-8F86-4B74-B5DE-F7306E2E0B1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{3C495B11-8F86-4B74-B5DE-F7306E2E0B1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A46FB3-1908-4E31-8006-A098B5EDCE82}">
   <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
@@ -3911,8 +3911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0249229-1DE6-4127-8B6B-6B83AFD04217}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Super Powered/Data/Success Analysis.xlsx
+++ b/Super Powered/Data/Success Analysis.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FLL\repo\Super Powered\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F4A3D4-EDFC-4D32-8338-2E61979C3E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCA841A-A021-45F3-BFB6-AE803C294E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{3C495B11-8F86-4B74-B5DE-F7306E2E0B1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{3C495B11-8F86-4B74-B5DE-F7306E2E0B1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Full Run" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="18">
   <si>
     <t>Score</t>
   </si>
@@ -83,6 +84,15 @@
   <si>
     <t>Success Rate</t>
   </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
 </sst>
 </file>
 
@@ -117,10 +127,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,9 +157,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF35B27C-1545-4632-BE72-18A5BDAD030B}" name="Table1" displayName="Table1" ref="A1:G150" totalsRowShown="0">
-  <autoFilter ref="A1:G150" xr:uid="{BF35B27C-1545-4632-BE72-18A5BDAD030B}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF35B27C-1545-4632-BE72-18A5BDAD030B}" name="Table1" displayName="Table1" ref="A1:H150" totalsRowShown="0">
+  <autoFilter ref="A1:H150" xr:uid="{BF35B27C-1545-4632-BE72-18A5BDAD030B}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{BF74B0B6-E334-4636-978E-7051EB4E0E64}" name="Trial"/>
     <tableColumn id="6" xr3:uid="{A741DFB3-5075-44B7-8804-88C9204AD3A0}" name="Run"/>
     <tableColumn id="2" xr3:uid="{B1ED5BF7-12AB-4862-A43A-F24651F2C2DE}" name="Score"/>
@@ -158,6 +169,7 @@
     <tableColumn id="7" xr3:uid="{DBB3BF7F-BF59-4269-BBD9-CA081A15D5EC}" name="Success Rate" dataDxfId="1">
       <calculatedColumnFormula>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="8" xr3:uid="{9C4DE3C3-069D-4CBF-87BF-133698B30A42}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -444,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A46FB3-1908-4E31-8006-A098B5EDCE82}">
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -456,9 +468,10 @@
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="4" max="5" width="10.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -480,8 +493,11 @@
       <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -505,7 +521,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>IF(Table1[[#This Row],[Run]]=B2, A2+1, 1)</f>
         <v>2</v>
@@ -530,7 +546,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>IF(Table1[[#This Row],[Run]]=B3, A3+1, 1)</f>
         <v>3</v>
@@ -555,7 +571,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>IF(Table1[[#This Row],[Run]]=B4, A4+1, 1)</f>
         <v>4</v>
@@ -580,7 +596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>IF(Table1[[#This Row],[Run]]=B5, A5+1, 1)</f>
         <v>5</v>
@@ -605,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>IF(Table1[[#This Row],[Run]]=B6, A6+1, 1)</f>
         <v>6</v>
@@ -630,7 +646,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>IF(Table1[[#This Row],[Run]]=B7, A7+1, 1)</f>
         <v>7</v>
@@ -655,7 +671,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>IF(Table1[[#This Row],[Run]]=B8, A8+1, 1)</f>
         <v>8</v>
@@ -680,7 +696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>IF(Table1[[#This Row],[Run]]=B9, A9+1, 1)</f>
         <v>9</v>
@@ -705,7 +721,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>IF(Table1[[#This Row],[Run]]=B10, A10+1, 1)</f>
         <v>10</v>
@@ -730,7 +746,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>IF(Table1[[#This Row],[Run]]=B11, A11+1, 1)</f>
         <v>11</v>
@@ -755,7 +771,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>IF(Table1[[#This Row],[Run]]=B12, A12+1, 1)</f>
         <v>12</v>
@@ -780,7 +796,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>IF(Table1[[#This Row],[Run]]=B13, A13+1, 1)</f>
         <v>13</v>
@@ -805,7 +821,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>IF(Table1[[#This Row],[Run]]=B14, A14+1, 1)</f>
         <v>14</v>
@@ -830,7 +846,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>IF(Table1[[#This Row],[Run]]=B15, A15+1, 1)</f>
         <v>15</v>
@@ -3911,7 +3927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0249229-1DE6-4127-8B6B-6B83AFD04217}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
@@ -4823,4 +4839,74 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E476FCB0-2EF6-4003-8656-30B369C26D3E}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="C2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.1125</v>
+      </c>
+      <c r="C3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="C5">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Super Powered/Data/Success Analysis.xlsx
+++ b/Super Powered/Data/Success Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FLL\repo\Super Powered\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCA841A-A021-45F3-BFB6-AE803C294E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D6252A-BD4E-437D-BDEA-27C7CB39FCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{3C495B11-8F86-4B74-B5DE-F7306E2E0B1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{3C495B11-8F86-4B74-B5DE-F7306E2E0B1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="17">
   <si>
     <t>Score</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Points</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -157,9 +154,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF35B27C-1545-4632-BE72-18A5BDAD030B}" name="Table1" displayName="Table1" ref="A1:H150" totalsRowShown="0">
-  <autoFilter ref="A1:H150" xr:uid="{BF35B27C-1545-4632-BE72-18A5BDAD030B}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF35B27C-1545-4632-BE72-18A5BDAD030B}" name="Table1" displayName="Table1" ref="A1:G150" totalsRowShown="0">
+  <autoFilter ref="A1:G150" xr:uid="{BF35B27C-1545-4632-BE72-18A5BDAD030B}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{BF74B0B6-E334-4636-978E-7051EB4E0E64}" name="Trial"/>
     <tableColumn id="6" xr3:uid="{A741DFB3-5075-44B7-8804-88C9204AD3A0}" name="Run"/>
     <tableColumn id="2" xr3:uid="{B1ED5BF7-12AB-4862-A43A-F24651F2C2DE}" name="Score"/>
@@ -169,7 +166,6 @@
     <tableColumn id="7" xr3:uid="{DBB3BF7F-BF59-4269-BBD9-CA081A15D5EC}" name="Success Rate" dataDxfId="1">
       <calculatedColumnFormula>IF(ISERROR((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2, Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]], ((Table1[[#This Row],[Score]]/Table1[[#This Row],[Max]]) +(Table1[[#This Row],[NSO Met]]/Table1[[#This Row],[NSO Goal]]))/2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9C4DE3C3-069D-4CBF-87BF-133698B30A42}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -456,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A46FB3-1908-4E31-8006-A098B5EDCE82}">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -471,7 +467,7 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -493,11 +489,8 @@
       <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -521,7 +514,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>IF(Table1[[#This Row],[Run]]=B2, A2+1, 1)</f>
         <v>2</v>
@@ -546,7 +539,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>IF(Table1[[#This Row],[Run]]=B3, A3+1, 1)</f>
         <v>3</v>
@@ -571,7 +564,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>IF(Table1[[#This Row],[Run]]=B4, A4+1, 1)</f>
         <v>4</v>
@@ -596,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>IF(Table1[[#This Row],[Run]]=B5, A5+1, 1)</f>
         <v>5</v>
@@ -621,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>IF(Table1[[#This Row],[Run]]=B6, A6+1, 1)</f>
         <v>6</v>
@@ -646,7 +639,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>IF(Table1[[#This Row],[Run]]=B7, A7+1, 1)</f>
         <v>7</v>
@@ -671,7 +664,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>IF(Table1[[#This Row],[Run]]=B8, A8+1, 1)</f>
         <v>8</v>
@@ -696,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>IF(Table1[[#This Row],[Run]]=B9, A9+1, 1)</f>
         <v>9</v>
@@ -721,7 +714,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>IF(Table1[[#This Row],[Run]]=B10, A10+1, 1)</f>
         <v>10</v>
@@ -746,7 +739,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>IF(Table1[[#This Row],[Run]]=B11, A11+1, 1)</f>
         <v>11</v>
@@ -771,7 +764,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>IF(Table1[[#This Row],[Run]]=B12, A12+1, 1)</f>
         <v>12</v>
@@ -796,7 +789,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>IF(Table1[[#This Row],[Run]]=B13, A13+1, 1)</f>
         <v>13</v>
@@ -821,7 +814,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>IF(Table1[[#This Row],[Run]]=B14, A14+1, 1)</f>
         <v>14</v>
@@ -846,7 +839,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>IF(Table1[[#This Row],[Run]]=B15, A15+1, 1)</f>
         <v>15</v>
@@ -3927,8 +3920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0249229-1DE6-4127-8B6B-6B83AFD04217}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4843,10 +4836,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E476FCB0-2EF6-4003-8656-30B369C26D3E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4906,6 +4899,39 @@
         <v>295</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="C6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.10277777777777779</v>
+      </c>
+      <c r="C7">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.10347222222222223</v>
+      </c>
+      <c r="C8">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
